--- a/biology/Médecine/Ferdinand_Monoyer/Ferdinand_Monoyer.xlsx
+++ b/biology/Médecine/Ferdinand_Monoyer/Ferdinand_Monoyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ferdinand Charles Edmond Monoyer, né le 9 mai 1836 à Lyon et mort le 11 juillet 1912 à Lyon, est un physicien et ophtalmologue français, inventeur de la dioptrie et d'une échelle optométrique pour la mesure de l'acuité visuelle : l'échelle Monoyer.
 </t>
@@ -511,13 +523,15 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrégé de physique à la faculté de médecine de Strasbourg, il est chargé de cours à la première chaire d'ophtalmologie de la faculté de Nancy. Il est ensuite nommé professeur de physique médicale à Lyon, entre 1877 et 1909.
-Ferdinand Monoyer est l'un des promoteurs de la notion d'unité de « puissance optique ». C'est lui qui propose, en 1872, l'utilisation de la dioptrie (ou m-1) pour mesurer la « puissance » des verres des lentilles[1] définie par l'inverse de sa distance focale F exprimée en mètre. Cette unité de vergence des systèmes optiques est définitivement adoptée par le Congrès d'ophtalmologie de Bruxelles en 1875.
+Ferdinand Monoyer est l'un des promoteurs de la notion d'unité de « puissance optique ». C'est lui qui propose, en 1872, l'utilisation de la dioptrie (ou m-1) pour mesurer la « puissance » des verres des lentilles définie par l'inverse de sa distance focale F exprimée en mètre. Cette unité de vergence des systèmes optiques est définitivement adoptée par le Congrès d'ophtalmologie de Bruxelles en 1875.
 Ferdinand Monoyer est l'inventeur de l'échelle Monoyer encore en usage actuellement et dans le monde entier pour mesurer l'acuité visuelle. Invention dans laquelle il cache ses nom, prénom et qualité. En effet, par un double acrostiche, en lisant chacune des premières lettres de chaque ligne en partant de l'avant-dernière ligne du bas, on peut lire MONOYER DM (docteur en médecine) et FERDINAND en ne lisant que les dernières lettres.
-Il met au point un ophtalmoscope à trois observateurs[2]. 
-Membre de la Société des sciences naturelles de Strasbourg[3] le 4 juillet 1865, il fait partie des Alsaciens qui choisirent la France et transférèrent la Société de Strasbourg à Nancy en fondant la Société des sciences de Nancy[4].
+Il met au point un ophtalmoscope à trois observateurs. 
+Membre de la Société des sciences naturelles de Strasbourg le 4 juillet 1865, il fait partie des Alsaciens qui choisirent la France et transférèrent la Société de Strasbourg à Nancy en fondant la Société des sciences de Nancy.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Des fermentations, [thèse présentée à la Faculté de Médecine de Strasbourg, et soutenue publiquement le lundi 18 août 1862], Silbermann (Strasbourg), 1862, Texte intégral.
@@ -558,8 +574,8 @@
 Une extraction de cataracte dans un cas de luxation du cristallin, avec complication du côté du tractus uvéal et du corps vitré,  G. Silbermann (Strasbourg), 1867, 23 p.
 Des anomalies de la réfraction de l'œil : notions théoriques et observations cliniques, impr. de G. Silbermann (Strasbourg), 1868, 16 p. ; in-8, lire en ligne sur Gallica.
 Idée d'une nouvelle théorie entièrement physique des images consécutives, G. Silbermann (Strasbourg), 1868.
-« Sur l'introduction du couteau linéaire dans la pratique de l'iridectomie »[5],  (Strasbourg), 1871.
-« Description et usage de l'iconarithme, nouvel instrument destiné à faciliter l'étude des images fournies par les lentilles » [6], (Strasbourg), 1872.
+« Sur l'introduction du couteau linéaire dans la pratique de l'iridectomie »,  (Strasbourg), 1871.
+« Description et usage de l'iconarithme, nouvel instrument destiné à faciliter l'étude des images fournies par les lentilles » , (Strasbourg), 1872.
 Épithélioma perlé ou margaritoïde de l'iris, Berger-Levrault (Paris) , 1872.
 Notions générales de zymologie Berger-Levrault et Cie (Paris), 1872.
 Discours d'inauguration prononcé le 19 février 1873 : cours d'ophtalmologie, [recueilli par M. le Dr Adrien Stoeber], Berger-Levrault et Cie (Paris), 1874, Éditeur scientifique: Faculté de médecine (Nancy). , 24 p. ; in-8, lire en ligne sur Gallica.
